--- a/teaching/traditional_assets/database/data/norway/norway_air_transport.xlsx
+++ b/teaching/traditional_assets/database/data/norway/norway_air_transport.xlsx
@@ -591,28 +591,25 @@
         </is>
       </c>
       <c r="D2">
-        <v>0.188</v>
-      </c>
-      <c r="F2">
-        <v>-0.272</v>
+        <v>-0.0442</v>
       </c>
       <c r="G2">
-        <v>-0.05901437371663244</v>
+        <v>0.2273560491697218</v>
       </c>
       <c r="H2">
-        <v>-0.05901437371663244</v>
+        <v>0.2273560491697218</v>
       </c>
       <c r="I2">
-        <v>-0.07142950595413808</v>
+        <v>-0.528338708275598</v>
       </c>
       <c r="J2">
-        <v>-0.07142950595413808</v>
+        <v>-0.528338708275598</v>
       </c>
       <c r="K2">
-        <v>-303</v>
+        <v>-886.1</v>
       </c>
       <c r="L2">
-        <v>-0.062217659137577</v>
+        <v>-0.4777334483502265</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -636,73 +633,73 @@
         <v>0</v>
       </c>
       <c r="U2">
-        <v>323</v>
+        <v>363.3</v>
       </c>
       <c r="V2">
-        <v>0.4593941117906414</v>
+        <v>0.9010416666666667</v>
       </c>
       <c r="W2">
-        <v>-0.4685325498685635</v>
+        <v>-1.539972193256865</v>
       </c>
       <c r="X2">
-        <v>0.4647670503977473</v>
+        <v>0.5175970166611015</v>
       </c>
       <c r="Y2">
-        <v>-0.9332996002663108</v>
+        <v>-2.057569209917967</v>
       </c>
       <c r="Z2">
-        <v>0.5948376057133095</v>
+        <v>0.2515370782703055</v>
       </c>
       <c r="AA2">
-        <v>-0.04248895629904408</v>
+        <v>-0.1328967750167512</v>
       </c>
       <c r="AB2">
-        <v>0.06226410548188775</v>
+        <v>0.06482396144267341</v>
       </c>
       <c r="AC2">
-        <v>-0.1047530617809318</v>
+        <v>-0.1977207364594246</v>
       </c>
       <c r="AD2">
-        <v>7117.5</v>
+        <v>5544.5</v>
       </c>
       <c r="AE2">
-        <v>3835.308469983263</v>
+        <v>3.963180547895941</v>
       </c>
       <c r="AF2">
-        <v>10952.80846998326</v>
+        <v>5548.463180547896</v>
       </c>
       <c r="AG2">
-        <v>10629.80846998326</v>
+        <v>5185.163180547896</v>
       </c>
       <c r="AH2">
-        <v>0.9396786615294166</v>
+        <v>0.9322542308311738</v>
       </c>
       <c r="AI2">
-        <v>0.9498898950992793</v>
+        <v>0.8238542368607101</v>
       </c>
       <c r="AJ2">
-        <v>0.9379594389328868</v>
+        <v>0.9278500721994112</v>
       </c>
       <c r="AK2">
-        <v>0.9484457365237651</v>
+        <v>0.8138104284080651</v>
       </c>
       <c r="AL2">
-        <v>291.8</v>
+        <v>316.9</v>
       </c>
       <c r="AM2">
-        <v>269.8</v>
+        <v>302.5</v>
       </c>
       <c r="AN2">
-        <v>11.5506329113924</v>
+        <v>-8.299280015567231</v>
       </c>
       <c r="AO2">
-        <v>-0.6370801919122687</v>
+        <v>-3.094351530451247</v>
       </c>
       <c r="AP2">
-        <v>17.25058174291344</v>
+        <v>-7.761407009067755</v>
       </c>
       <c r="AQ2">
-        <v>-0.6890289103039289</v>
+        <v>-3.241652892561984</v>
       </c>
     </row>
     <row r="3">
@@ -722,28 +719,25 @@
         </is>
       </c>
       <c r="D3">
-        <v>0.188</v>
-      </c>
-      <c r="F3">
-        <v>-0.272</v>
+        <v>-0.0442</v>
       </c>
       <c r="G3">
-        <v>-0.05901437371663244</v>
+        <v>0.2273560491697218</v>
       </c>
       <c r="H3">
-        <v>-0.05901437371663244</v>
+        <v>0.2273560491697218</v>
       </c>
       <c r="I3">
-        <v>-0.07142950595413808</v>
+        <v>-0.528338708275598</v>
       </c>
       <c r="J3">
-        <v>-0.07142950595413808</v>
+        <v>-0.528338708275598</v>
       </c>
       <c r="K3">
-        <v>-303</v>
+        <v>-886.1</v>
       </c>
       <c r="L3">
-        <v>-0.062217659137577</v>
+        <v>-0.4777334483502265</v>
       </c>
       <c r="M3">
         <v>-0</v>
@@ -767,73 +761,73 @@
         <v>0</v>
       </c>
       <c r="U3">
-        <v>323</v>
+        <v>363.3</v>
       </c>
       <c r="V3">
-        <v>0.4593941117906414</v>
+        <v>0.9010416666666667</v>
       </c>
       <c r="W3">
-        <v>-0.4685325498685635</v>
+        <v>-1.539972193256865</v>
       </c>
       <c r="X3">
-        <v>0.4647670503977473</v>
+        <v>0.5175970166611015</v>
       </c>
       <c r="Y3">
-        <v>-0.9332996002663108</v>
+        <v>-2.057569209917967</v>
       </c>
       <c r="Z3">
-        <v>0.5948376057133095</v>
+        <v>0.2515370782703055</v>
       </c>
       <c r="AA3">
-        <v>-0.04248895629904408</v>
+        <v>-0.1328967750167512</v>
       </c>
       <c r="AB3">
-        <v>0.06226410548188775</v>
+        <v>0.06482396144267341</v>
       </c>
       <c r="AC3">
-        <v>-0.1047530617809318</v>
+        <v>-0.1977207364594246</v>
       </c>
       <c r="AD3">
-        <v>7117.5</v>
+        <v>5544.5</v>
       </c>
       <c r="AE3">
-        <v>3835.308469983263</v>
+        <v>3.963180547895941</v>
       </c>
       <c r="AF3">
-        <v>10952.80846998326</v>
+        <v>5548.463180547896</v>
       </c>
       <c r="AG3">
-        <v>10629.80846998326</v>
+        <v>5185.163180547896</v>
       </c>
       <c r="AH3">
-        <v>0.9396786615294166</v>
+        <v>0.9322542308311738</v>
       </c>
       <c r="AI3">
-        <v>0.9498898950992793</v>
+        <v>0.8238542368607101</v>
       </c>
       <c r="AJ3">
-        <v>0.9379594389328868</v>
+        <v>0.9278500721994112</v>
       </c>
       <c r="AK3">
-        <v>0.9484457365237651</v>
+        <v>0.8138104284080651</v>
       </c>
       <c r="AL3">
-        <v>291.8</v>
+        <v>316.9</v>
       </c>
       <c r="AM3">
-        <v>269.8</v>
+        <v>302.5</v>
       </c>
       <c r="AN3">
-        <v>11.5506329113924</v>
+        <v>-8.299280015567231</v>
       </c>
       <c r="AO3">
-        <v>-0.6370801919122687</v>
+        <v>-3.094351530451247</v>
       </c>
       <c r="AP3">
-        <v>17.25058174291344</v>
+        <v>-7.761407009067755</v>
       </c>
       <c r="AQ3">
-        <v>-0.6890289103039289</v>
+        <v>-3.241652892561984</v>
       </c>
     </row>
   </sheetData>
